--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF80EE2-892A-4D50-A2EA-0BFECDF7CD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,20 +28,28 @@
     <t>E-mail</t>
   </si>
   <si>
-    <t>gnk;kk</t>
+    <t>Mahmoud Ahmed Mohamed Talaat</t>
   </si>
   <si>
-    <t>bknkn</t>
+    <t>tmahmoud793@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,15 +78,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="ارتباط تشعبي" xfId="1" builtinId="8"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,20 +366,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -375,16 +387,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{D70BFB24-5AF6-4058-BE35-37E2AFCBABF8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>